--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>-9.245231405843276</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.120113965688313</v>
+        <v>-9.168620947716908</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.716744016263265</v>
+        <v>-1.782480468831571</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.765990175071427</v>
+        <v>-7.956195150756024</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.621752052721069</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.772149924114796</v>
+        <v>-9.808075203112493</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.727649904530422</v>
+        <v>-1.780333331165528</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.620717982739635</v>
+        <v>-7.769223973873334</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.87357812117479</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.31760144510679</v>
+        <v>-10.37745945369916</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.726602520303084</v>
+        <v>-1.784837083343082</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.42316822516083</v>
+        <v>-7.57463307673676</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.055602490022943</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.96445285160795</v>
+        <v>-11.01788253950503</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.727793919861681</v>
+        <v>-1.77822547040801</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.001923381228294</v>
+        <v>-7.13850228447318</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-6.1774328112322</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.58010530043727</v>
+        <v>-11.65606684152497</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.780280961954161</v>
+        <v>-1.83230977344718</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.753392196383808</v>
+        <v>-6.885860116536392</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.265328994083475</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.37823826627458</v>
+        <v>-12.44847847102044</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.568067825192623</v>
+        <v>-1.625372834730858</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.374671152081198</v>
+        <v>-6.505358519047308</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.344228804193837</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.01862207517193</v>
+        <v>-13.0909701406753</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.474523321388491</v>
+        <v>-1.528057747708308</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.711284167090938</v>
+        <v>-5.865184186995428</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.442053230475551</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.63320095516823</v>
+        <v>-13.71082521871683</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.361510563258711</v>
+        <v>-1.423712094059752</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.315700236728185</v>
+        <v>-5.442774128109979</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.58151882217561</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.26642327441115</v>
+        <v>-14.35474394938144</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.286596406398355</v>
+        <v>-1.341557893727921</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.915913677153238</v>
+        <v>-5.057978255288807</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.787132814950481</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.10874276233928</v>
+        <v>-15.1996164363637</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.17240534101282</v>
+        <v>-1.215086248276847</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.353442162467003</v>
+        <v>-4.493425064450737</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.079235086188884</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.88532579769911</v>
+        <v>-15.97215395014543</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9320568454444126</v>
+        <v>-0.9815981193975041</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.830195187094579</v>
+        <v>-3.952346372607883</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4737164554137901</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.64885580712573</v>
+        <v>-16.74065903465191</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8403059871295964</v>
+        <v>-0.8903709531963568</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.361778776023303</v>
+        <v>-3.47196359673927</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.008951382265636494</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.37752101408484</v>
+        <v>-17.46153432142019</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6584277160523377</v>
+        <v>-0.7138081570728391</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.789527311114298</v>
+        <v>-2.905302545143682</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3581179368050041</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.144232453102</v>
+        <v>-18.23942658706419</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4741273689493599</v>
+        <v>-0.5266929648588901</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.507178708029634</v>
+        <v>-2.622011296254414</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5698618651592008</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.01146659333793</v>
+        <v>-19.10916135714289</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3116649829863811</v>
+        <v>-0.3617168567502999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.940949702427823</v>
+        <v>-2.066216856017459</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6478811214011813</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.84346934662678</v>
+        <v>-19.93075572967257</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.07088444142419702</v>
+        <v>-0.1139450254706341</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.671353002311</v>
+        <v>-1.789864527634305</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5995975669361346</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.58162647314614</v>
+        <v>-20.68695404950783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.03470498099432372</v>
+        <v>0.006831468244288928</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.231713472885839</v>
+        <v>-1.352660166537704</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4376739894958266</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.30258031373147</v>
+        <v>-21.42062051615247</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3114238938570459</v>
+        <v>0.2739799077297094</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8486326917369341</v>
+        <v>-0.9740438606578281</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1736330833965796</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.9398219699468</v>
+        <v>-22.05216702063165</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4610558230351331</v>
+        <v>0.4230357755827606</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6193340997669438</v>
+        <v>-0.7386835324721186</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.1772182164373494</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.55848564842973</v>
+        <v>-22.67021536088102</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6473462001700534</v>
+        <v>0.6115780288064577</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.279889963989512</v>
+        <v>-0.4108653616181396</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.5979681820029084</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.01242197255805</v>
+        <v>-23.12639046879528</v>
       </c>
       <c r="F22" t="n">
-        <v>0.815359722537924</v>
+        <v>0.7862293487150835</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1631328072469989</v>
+        <v>-0.2929037130141877</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.070505843789901</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.45356711681001</v>
+        <v>-23.56887102793709</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8971604306930284</v>
+        <v>0.8734502702466626</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01723218437880359</v>
+        <v>-0.1624520074992291</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.581080921115269</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.94378221211276</v>
+        <v>-24.0469626508084</v>
       </c>
       <c r="F24" t="n">
-        <v>1.040900823592339</v>
+        <v>1.021537307689426</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.06415499776354981</v>
+        <v>-0.1746802183534013</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.115661569235191</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.19410704244656</v>
+        <v>-24.29346452871242</v>
       </c>
       <c r="F25" t="n">
-        <v>1.095508818745178</v>
+        <v>1.076839194892877</v>
       </c>
       <c r="G25" t="n">
-        <v>0.131522560508888</v>
+        <v>0.002000408495692009</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-2.660777198972746</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.46045685145864</v>
+        <v>-24.56890039589666</v>
       </c>
       <c r="F26" t="n">
-        <v>1.232166275807115</v>
+        <v>1.213640667286073</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02904910616669807</v>
+        <v>-0.09951730773905193</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.204024397457545</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.5133759395449</v>
+        <v>-24.61315237950169</v>
       </c>
       <c r="F27" t="n">
-        <v>1.20057454905003</v>
+        <v>1.181224125449959</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1709750966491928</v>
+        <v>-0.3004579717538636</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.733197790262196</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.59495407855169</v>
+        <v>-24.70051731636453</v>
       </c>
       <c r="F28" t="n">
-        <v>1.128933467900105</v>
+        <v>1.110080551808019</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5243363503473794</v>
+        <v>-0.6537406716349998</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.236832755812016</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.40529897958645</v>
+        <v>-24.51743455342583</v>
       </c>
       <c r="F29" t="n">
-        <v>1.14588800008014</v>
+        <v>1.117346779885177</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5766401002000751</v>
+        <v>-0.693305610822696</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.708624516748613</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.14584881417196</v>
+        <v>-24.25549685047142</v>
       </c>
       <c r="F30" t="n">
-        <v>1.034001179994749</v>
+        <v>1.003194991408168</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8927144754050258</v>
+        <v>-1.012063908110201</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.141738274243254</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.92207517400118</v>
+        <v>-24.0378635003334</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9655022515268386</v>
+        <v>0.9325227406685306</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.111774886552786</v>
+        <v>-1.212258310863034</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.53023863945443</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.57698825569896</v>
+        <v>-23.68849539900194</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9418182756861561</v>
+        <v>0.911758348361553</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.357504318589143</v>
+        <v>-1.460776403404678</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.869111209822492</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.24330473317189</v>
+        <v>-23.35581998379369</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9066261656475965</v>
+        <v>0.8713031325806195</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.637954537761757</v>
+        <v>-1.735361270904199</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.152481301001107</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.79021940872828</v>
+        <v>-22.91688743872198</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8416752512497934</v>
+        <v>0.8143777998247945</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.88024069415074</v>
+        <v>-1.960575064387571</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.375592164003368</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.43214492600707</v>
+        <v>-22.54544571479937</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7618252962181061</v>
+        <v>0.7287934161484312</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.164121096667886</v>
+        <v>-2.214762124059682</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.537477800050122</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.85888535377925</v>
+        <v>-21.98046047796752</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8098478630415573</v>
+        <v>0.7746950299115228</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.466579476917441</v>
+        <v>-2.496102619825534</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.636511286787819</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.40888981280629</v>
+        <v>-21.53748241131772</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8283341946540745</v>
+        <v>0.7900523011448675</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.649321839982254</v>
+        <v>-2.680533889956929</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.6744371312912</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.92690977599098</v>
+        <v>-21.04873365393324</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9232926671651137</v>
+        <v>0.8870400805963742</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.78020559149099</v>
+        <v>-2.814167025062427</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.654559405108384</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.43748021885874</v>
+        <v>-20.5653920176224</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9430620444561201</v>
+        <v>0.9038505974451505</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.840836045951023</v>
+        <v>-2.85992462349426</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.580826769121343</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.77870172446876</v>
+        <v>-19.91276690556804</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9623077296334573</v>
+        <v>0.9265657428755453</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.961979124145514</v>
+        <v>-2.971850720488176</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.45930147010689</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.24186493874663</v>
+        <v>-19.37949122621885</v>
       </c>
       <c r="F41" t="n">
-        <v>1.035271133370397</v>
+        <v>0.9976045780947509</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.118811819886551</v>
+        <v>-3.122660956922018</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.298170969198308</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.48409554257037</v>
+        <v>-18.61538515546719</v>
       </c>
       <c r="F42" t="n">
-        <v>1.010840896267736</v>
+        <v>0.9770889395417661</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.334428955386938</v>
+        <v>-3.336392800813196</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.105138390109127</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.96290405874409</v>
+        <v>-18.10379032962391</v>
       </c>
       <c r="F43" t="n">
-        <v>1.116508872503307</v>
+        <v>1.073958888267697</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.371296880189238</v>
+        <v>-3.378602385174921</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.890260225888595</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.40488392702404</v>
+        <v>-17.53562366320152</v>
       </c>
       <c r="F44" t="n">
-        <v>1.066902137036007</v>
+        <v>1.041228131163382</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.51937082532916</v>
+        <v>-3.534453158202828</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.660387219528115</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.75521767541191</v>
+        <v>-16.90101355985738</v>
       </c>
       <c r="F45" t="n">
-        <v>1.085833606945143</v>
+        <v>1.051086635203202</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.697753451547678</v>
+        <v>-3.703147480318469</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.420181710993004</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.27911608257254</v>
+        <v>-16.42631284342207</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9107895179512653</v>
+        <v>0.8978019535322731</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.860726437321484</v>
+        <v>-3.857270069371268</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.173764832063316</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.68522304106617</v>
+        <v>-15.8188038069603</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9884923353169095</v>
+        <v>0.9694299423793564</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.83452873933519</v>
+        <v>-3.849715810631592</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.923886287183674</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.03972014175771</v>
+        <v>-15.19811082153691</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9710926648402556</v>
+        <v>0.9420277525316237</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.978674993622594</v>
+        <v>-4.003759845867341</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.672672737961094</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.53414777522161</v>
+        <v>-14.68104341310578</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8892003105652591</v>
+        <v>0.872808747407418</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.086477015221367</v>
+        <v>-4.101153486706941</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.423817265851152</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.01645193625408</v>
+        <v>-14.1563693767236</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8817246056426334</v>
+        <v>0.8703212098674901</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.162006510315284</v>
+        <v>-4.193977913854779</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.178160659461546</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.54110969697953</v>
+        <v>-13.66809194224143</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9937816256649669</v>
+        <v>0.9750203556927735</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.255302260365424</v>
+        <v>-4.295980045294667</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.93550714341966</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.90534747098531</v>
+        <v>-13.05391892363322</v>
       </c>
       <c r="F52" t="n">
-        <v>0.882745805264288</v>
+        <v>0.8749166081649359</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.360354898367434</v>
+        <v>-4.407683573140273</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.696630149694625</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.50456589639439</v>
+        <v>-12.63822521610557</v>
       </c>
       <c r="F53" t="n">
-        <v>0.894411047096266</v>
+        <v>0.8864902038770217</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.551201396891275</v>
+        <v>-4.60418594649174</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.462031781194404</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.87466902207327</v>
+        <v>-12.02741691932769</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8709365481010511</v>
+        <v>0.8572943685399725</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.730867068788282</v>
+        <v>-4.769738115925366</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.233781437642597</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.49308076344832</v>
+        <v>-11.63806492511759</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8323404393236427</v>
+        <v>0.811772431559291</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.947531588516006</v>
+        <v>-4.989479326820897</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.015708182374591</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.11514525731621</v>
+        <v>-11.25362254447315</v>
       </c>
       <c r="F56" t="n">
-        <v>0.756287252116056</v>
+        <v>0.7392017969076035</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.1500040519633</v>
+        <v>-5.200867648503406</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.810071861989335</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.55953410931904</v>
+        <v>-10.70057748783296</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7374605206296538</v>
+        <v>0.717952989395482</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.22972308396657</v>
+        <v>-5.278871588834409</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.618652301387804</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.32656967255337</v>
+        <v>-10.45597399384099</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6545600590358445</v>
+        <v>0.6404989257838306</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.374576322607427</v>
+        <v>-5.427508502996526</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.444120652376114</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.819530968099002</v>
+        <v>-9.946919074748998</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6821717257290447</v>
+        <v>0.667914207934405</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.590494581073173</v>
+        <v>-5.645665545248208</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-2.288406172072736</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.689851708451707</v>
+        <v>-9.798936775728968</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6648767936751245</v>
+        <v>0.658121165408794</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.649370666952415</v>
+        <v>-5.702132647404571</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-2.154513709413045</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.315228554938557</v>
+        <v>-9.416851009596034</v>
       </c>
       <c r="F61" t="n">
-        <v>0.698838227246562</v>
+        <v>0.6967303664890441</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.658181786764898</v>
+        <v>-5.717123334158348</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-2.045510648204697</v>
       </c>
       <c r="E62" t="n">
-        <v>-9.043798932423892</v>
+        <v>-9.137500543862124</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6597707955668514</v>
+        <v>0.660936010519765</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.744538616308922</v>
+        <v>-5.823917248438308</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.962544566895658</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.718036253116063</v>
+        <v>-8.833235425820412</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6198392718995869</v>
+        <v>0.6223791786508818</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.739864664194426</v>
+        <v>-5.811584299161401</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.9047392407515</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.4121869664305</v>
+        <v>-8.530593753331072</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5167112024153107</v>
+        <v>0.5209400162331882</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.669532813328674</v>
+        <v>-5.74414584722367</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-1.871660927121082</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.300431069373527</v>
+        <v>-8.408350921697876</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3755892700843453</v>
+        <v>0.3878829424527261</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.68686702229112</v>
+        <v>-5.76834042287518</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-1.861619779859679</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.101336420059399</v>
+        <v>-8.212359148157237</v>
       </c>
       <c r="F66" t="n">
-        <v>0.332018086227081</v>
+        <v>0.3400043909605339</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.670449274527595</v>
+        <v>-5.759791149119533</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-1.873445968627545</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.973267513661635</v>
+        <v>-8.077338228950515</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2380415364291713</v>
+        <v>0.2504006703117607</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.623251522783172</v>
+        <v>-5.715735550057125</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-1.905635720041331</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.827694198364482</v>
+        <v>-7.94137466393919</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1833942643678067</v>
+        <v>0.1936324451900365</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.571078695958894</v>
+        <v>-5.665133799573854</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-1.955607086690434</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.757938408823766</v>
+        <v>-7.880495455725163</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1779609586884904</v>
+        <v>0.183616833516116</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.483373359222171</v>
+        <v>-5.579627969714541</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.019573818730487</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.766121098099845</v>
+        <v>-7.890249221342249</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07238462857281135</v>
+        <v>0.07849873399989743</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.383832580716527</v>
+        <v>-5.472127071081128</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.095417906526105</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.838482255906064</v>
+        <v>-7.948313584445304</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07498999683831484</v>
+        <v>0.07815833412601254</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.216460581187902</v>
+        <v>-5.3006440884602</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.180975634376667</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.849741636349949</v>
+        <v>-7.973895944198038</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.001482144060207125</v>
+        <v>0.001227962628030171</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.133638673411142</v>
+        <v>-5.210372660366499</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.274802312314847</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.062452280619473</v>
+        <v>-8.176761176730583</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.03725031542380274</v>
+        <v>-0.03914869933585302</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.865364295881333</v>
+        <v>-4.942425590407733</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.375284396782943</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.19168640197015</v>
+        <v>-8.3090196200377</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.09420183278531113</v>
+        <v>-0.08090005309811746</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.733930667653246</v>
+        <v>-4.809656547289789</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.480134096088122</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.533526429167619</v>
+        <v>-8.64018942041916</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1733971726749121</v>
+        <v>-0.1750729874386531</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.49093752691081</v>
+        <v>-4.559213886230411</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.585272414931052</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.792033948777499</v>
+        <v>-8.903357799840697</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1660392984778621</v>
+        <v>-0.1598466392337256</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.20475287909352</v>
+        <v>-4.252304123014668</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.688570853269589</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.30919300332852</v>
+        <v>-9.417387794012544</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2373923489652691</v>
+        <v>-0.2377982103533627</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.978386962960076</v>
+        <v>-4.040653955275325</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.787292536064313</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.763639927267674</v>
+        <v>-9.870905164449937</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1839757533710268</v>
+        <v>-0.1922631810698394</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.887866781112382</v>
+        <v>-3.944150591028962</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.879592946490885</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.20720714754535</v>
+        <v>-10.30530777273841</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.2525008664446211</v>
+        <v>-0.2587066179915992</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.740499820325913</v>
+        <v>-3.792436985699041</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.963562877523497</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.80174171189098</v>
+        <v>-10.9085879953823</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3043856626063814</v>
+        <v>-0.3155141200218486</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.411712819061647</v>
+        <v>-3.463807092068874</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.037061062004763</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.48248909044936</v>
+        <v>-11.59690272498321</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3208426872784311</v>
+        <v>-0.3343146669025672</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.252104555118164</v>
+        <v>-3.306581627242586</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.096590911866902</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.32687716222649</v>
+        <v>-12.43381509183771</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.3855972171336082</v>
+        <v>-0.4025517493136435</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.913891095807855</v>
+        <v>-2.965802076575298</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.142095690364708</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.24328599193595</v>
+        <v>-13.35103564432335</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3625809487378538</v>
+        <v>-0.3857543247677089</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.767833365305558</v>
+        <v>-2.814481240330629</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.173265044901731</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.18949290291317</v>
+        <v>-14.31228561126572</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4181184973924558</v>
+        <v>-0.4370630596044334</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.491939267521865</v>
+        <v>-2.543012340907438</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.192678871252485</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.41355775710035</v>
+        <v>-15.53049820608265</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4671622638375617</v>
+        <v>-0.4975102218246827</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.29325047959583</v>
+        <v>-2.345148368060432</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.204136581502615</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.47775250128721</v>
+        <v>-16.59189119746138</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5626967976736368</v>
+        <v>-0.5933851555346427</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.050060954310768</v>
+        <v>-2.113755007635766</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.212317191123875</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.64813891382331</v>
+        <v>-17.77565794350173</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4938967462403663</v>
+        <v>-0.5218488128074514</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.991983498904872</v>
+        <v>-2.049681277528359</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.220602645097727</v>
       </c>
       <c r="E88" t="n">
-        <v>-19.02336749662106</v>
+        <v>-19.14708975847537</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6485037504983094</v>
+        <v>-0.6773984628699988</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.961439156375125</v>
+        <v>-2.020524719099834</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.236259316482722</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.55394934493873</v>
+        <v>-20.68868223348294</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6318896181921591</v>
+        <v>-0.6575767163676256</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.948373038139082</v>
+        <v>-2.007249124018324</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.264891068001528</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.18915178526463</v>
+        <v>-22.32827059526081</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6681552970637402</v>
+        <v>-0.7037794530960769</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.959645510885808</v>
+        <v>-2.021716118658432</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.313764149923069</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.90038122819244</v>
+        <v>-24.03751000815668</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8136762431495255</v>
+        <v>-0.8394942643534093</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.001423049253756</v>
+        <v>-2.060102750590372</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.388652648793763</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.63678716948488</v>
+        <v>-25.77627256396064</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8607692564712142</v>
+        <v>-0.8900698302309971</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.062485549707567</v>
+        <v>-2.129989463159506</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.49375030053969</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.65723062092858</v>
+        <v>-27.80620793496458</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.034399376758185</v>
+        <v>-1.063451196763975</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.257377569809501</v>
+        <v>-2.317864008938275</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.628675322565373</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.71117727534424</v>
+        <v>-29.85333349959971</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.061173136069515</v>
+        <v>-1.092057878473147</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.32450180647903</v>
+        <v>-2.37956803223133</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.795934326198528</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.91005572221782</v>
+        <v>-32.05860099026005</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.294739818765908</v>
+        <v>-1.339515494484611</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.536858958571827</v>
+        <v>-2.592671445586106</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.995253523591819</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.17307336071301</v>
+        <v>-34.31788732244534</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.424733293681406</v>
+        <v>-1.46306755640198</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.755002908520667</v>
+        <v>-2.808354042600701</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.222776572473514</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.3872043403972</v>
+        <v>-36.52953076458961</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.601754320404384</v>
+        <v>-1.626983187980391</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.837052370429764</v>
+        <v>-2.903299422808898</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.478424315542145</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.72270096742419</v>
+        <v>-38.86373125363527</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.871756881909301</v>
+        <v>-1.894301827402753</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.098558027390401</v>
+        <v>-3.157394836361118</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.74841149545384</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.03167258889384</v>
+        <v>-41.16584250841585</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.888174629672826</v>
+        <v>-1.905940884629048</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.350741964727728</v>
+        <v>-3.381103015017691</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.032201068980839</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.36224651005234</v>
+        <v>-43.50118202780874</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.225052674093279</v>
+        <v>-2.236168039205904</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.404119283413445</v>
+        <v>-3.46680522941963</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.305457234141722</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.70074127443009</v>
+        <v>-45.83078711855695</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.26541624375432</v>
+        <v>-2.279791592274536</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.668675446936204</v>
+        <v>-3.719866351047353</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.585662336901625</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.24127645626135</v>
+        <v>-48.35805979760954</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.535353343745029</v>
+        <v>-2.536204343429741</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.699272158677318</v>
+        <v>-3.766553502980948</v>
       </c>
     </row>
   </sheetData>
